--- a/statistics/HistoricalDistanceData/historical_distance/Q55723938-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q55723938-en.xlsx
@@ -31,103 +31,103 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Danforth shooter ‘was afraid he was going to hurt people’</t>
+  </si>
+  <si>
+    <t>Details on Danforth gunman revealed in documents police filed to obtain search warrant</t>
+  </si>
+  <si>
+    <t>Faisal Hussain ID'd as gunman in deadly Danforth shooting spree</t>
+  </si>
+  <si>
     <t>Islamic State claims responsibility for Toronto mass shooting, yet provides no evidence</t>
   </si>
   <si>
-    <t>Faisal Hussain ID'd as gunman in deadly Danforth shooting spree</t>
+    <t>Toronto gunman had ‘severe mental health challenges,’ according to family</t>
+  </si>
+  <si>
+    <t>'Like 2 different people': Friend of Faisal Hussain struggles to understand what sparked Danforth rampage</t>
+  </si>
+  <si>
+    <t>Feds looking at ways to tackle wave of gun violence in Toronto: Minister</t>
   </si>
   <si>
     <t>Toronto police search for clues to killer’s path</t>
   </si>
   <si>
-    <t>Details on Danforth gunman revealed in documents police filed to obtain search warrant</t>
-  </si>
-  <si>
-    <t>Toronto gunman had ‘severe mental health challenges,’ according to family</t>
-  </si>
-  <si>
     <t>Woman and girl dead, 13 other people injured in Danforth shooting in Toronto</t>
   </si>
   <si>
     <t>Greece 'in Solidarity' with Canada Over Toronto Shooting</t>
   </si>
   <si>
-    <t>Danforth shooter ‘was afraid he was going to hurt people’</t>
-  </si>
-  <si>
-    <t>Feds looking at ways to tackle wave of gun violence in Toronto: Minister</t>
-  </si>
-  <si>
-    <t>'Like 2 different people': Friend of Faisal Hussain struggles to understand what sparked Danforth rampage</t>
+    <t>2018-07-25T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2018-09-21T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2018-07-23T18:51:00UTC</t>
   </si>
   <si>
     <t>2018-07-25T07:06:02UTC</t>
   </si>
   <si>
-    <t>2018-07-23T18:51:00UTC</t>
+    <t>2018-07-23T17:52:44UTC</t>
+  </si>
+  <si>
+    <t>2018-07-24T03:39:00UTC</t>
+  </si>
+  <si>
+    <t>2018-07-23T10:21:00UTC</t>
   </si>
   <si>
     <t>2018-07-24T16:55:26UTC</t>
   </si>
   <si>
-    <t>2018-09-21T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-07-23T17:52:44UTC</t>
-  </si>
-  <si>
     <t>2018-07-23T02:45:00UTC</t>
   </si>
   <si>
     <t>2018-07-23T14:20:08UTC</t>
   </si>
   <si>
-    <t>2018-07-25T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-07-23T10:21:00UTC</t>
-  </si>
-  <si>
-    <t>2018-07-24T03:39:00UTC</t>
-  </si>
-  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
+    <t>https://www.thestar.com/news/gta/2018/07/25/danforth-shooter-was-afraid-he-was-going-to-hurt-people.html</t>
+  </si>
+  <si>
+    <t>https://www.thestar.com/news/gta/2018/09/19/details-on-danforth-gunman-reveled-in-documents-police-filed-to-obtain-search-warrant.html?source=newsletter</t>
+  </si>
+  <si>
+    <t>http://www.cbc.ca/news/canada/toronto/police-id-danforth-shooter-1.4757566</t>
   </si>
   <si>
     <t>https://globalnews.ca/news/4351650/toronto-mass-shooting-islamic-state-no-evidence/</t>
   </si>
   <si>
-    <t>http://www.cbc.ca/news/canada/toronto/police-id-danforth-shooter-1.4757566</t>
+    <t>https://globalnews.ca/news/4348575/toronto-gunman-mental-health-family/</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/toronto/faisal-hussein-friends-1.4758969</t>
+  </si>
+  <si>
+    <t>https://www.ctvnews.ca/politics/feds-looking-at-ways-to-tackle-wave-of-gun-violence-in-toronto-minister-1.4024003</t>
   </si>
   <si>
     <t>https://www.theglobeandmail.com/canada/toronto/article-im-not-going-to-shoot-you-new-details-emerge-about-final-moments/</t>
   </si>
   <si>
-    <t>https://www.thestar.com/news/gta/2018/09/19/details-on-danforth-gunman-reveled-in-documents-police-filed-to-obtain-search-warrant.html?source=newsletter</t>
-  </si>
-  <si>
-    <t>https://globalnews.ca/news/4348575/toronto-gunman-mental-health-family/</t>
-  </si>
-  <si>
     <t>http://www.cbc.ca/news/canada/toronto/danforth-logan-shooting-1.4757409</t>
   </si>
   <si>
     <t>http://greece.greekreporter.com/2018/07/23/greece-in-solidarity-with-canada-over-toronto-shooting/</t>
-  </si>
-  <si>
-    <t>https://www.thestar.com/news/gta/2018/07/25/danforth-shooter-was-afraid-he-was-going-to-hurt-people.html</t>
-  </si>
-  <si>
-    <t>https://www.ctvnews.ca/politics/feds-looking-at-ways-to-tackle-wave-of-gun-violence-in-toronto-minister-1.4024003</t>
-  </si>
-  <si>
-    <t>https://www.cbc.ca/news/canada/toronto/faisal-hussein-friends-1.4758969</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -563,10 +563,10 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -580,10 +580,10 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -614,10 +614,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -682,10 +682,10 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
